--- a/2-数据处理与分析/数据分析/材料/第三问/相关性分析总结.xlsx
+++ b/2-数据处理与分析/数据分析/材料/第三问/相关性分析总结.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34603\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34603\Documents\GitHub\MCM2024\2-数据处理与分析\数据分析\材料\第三问\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92BDA32-283B-452C-AB26-C9E4A12433D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A34EC8B-BE16-4C9D-96C5-ADFEA0413371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>因子分类</t>
   </si>
@@ -282,6 +291,21 @@
   </si>
   <si>
     <t>因子分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史成绩
+Historical_Achievement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技巧
+Skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时局
+Current_Situation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -388,11 +412,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -406,19 +454,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,20 +779,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="7"/>
-    <col min="2" max="2" width="20.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.9140625" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="7"/>
+    <col min="1" max="1" width="8.6640625" style="6"/>
+    <col min="2" max="2" width="20.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.9140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,13 +824,13 @@
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -765,8 +844,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -778,8 +857,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -791,8 +870,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -806,8 +885,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -819,8 +898,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
@@ -832,8 +911,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
@@ -845,8 +924,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
@@ -858,8 +937,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
@@ -871,8 +950,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -884,8 +963,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
@@ -897,8 +976,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -910,8 +989,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
@@ -923,8 +1002,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
@@ -936,8 +1015,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
@@ -949,8 +1028,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
@@ -962,8 +1041,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
@@ -975,8 +1054,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
@@ -988,8 +1067,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1001,21 +1080,21 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1027,8 +1106,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="3" t="s">
         <v>45</v>
       </c>
@@ -1040,21 +1119,21 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
@@ -1093,16 +1172,16 @@
       <c r="D30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="7"/>
       <c r="I30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1114,13 +1193,16 @@
       <c r="E31" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="F31" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="I31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1130,193 +1212,213 @@
       <c r="E32" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="F32" s="12"/>
       <c r="I32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="I33" t="s">
+      <c r="F34" s="12"/>
+      <c r="I34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4" t="s">
+    <row r="35" spans="1:9" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I34" t="s">
+      <c r="F35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I35" t="s">
+      <c r="F36" s="10"/>
+      <c r="I36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I36" t="s">
+      <c r="F37" s="10"/>
+      <c r="I37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I37" t="s">
+      <c r="F38" s="10"/>
+      <c r="I38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I38" t="s">
+      <c r="F39" s="10"/>
+      <c r="I39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3" t="s">
+    <row r="40" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E40" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I39" t="s">
+      <c r="F40" s="11"/>
+      <c r="I40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3" t="s">
+    <row r="41" spans="1:9" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I40" t="s">
+      <c r="F41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I41" t="s">
+      <c r="F42" s="10"/>
+      <c r="I42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I42" t="s">
+      <c r="F43" s="11"/>
+      <c r="I43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" t="s">
-        <v>5</v>
-      </c>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B35:B43"/>
     <mergeCell ref="A31:A43"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="B31:B34"/>
     <mergeCell ref="A3:A26"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B26"/>

--- a/2-数据处理与分析/数据分析/材料/第三问/相关性分析总结.xlsx
+++ b/2-数据处理与分析/数据分析/材料/第三问/相关性分析总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34603\Documents\GitHub\MCM2024\2-数据处理与分析\数据分析\材料\第三问\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A34EC8B-BE16-4C9D-96C5-ADFEA0413371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C3AD5B-08BB-42CC-941C-F42CBA6A8D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
   <si>
     <t>因子分类</t>
   </si>
@@ -306,6 +306,37 @@
   <si>
     <t>时局
 Current_Situation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factor classification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>English name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance factors</t>
+  </si>
+  <si>
+    <t>Impact factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-term impact factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short-term impact factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1_ace</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +374,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,7 +389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -436,11 +473,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -466,37 +580,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -827,10 +989,10 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -844,8 +1006,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -857,8 +1019,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -870,8 +1032,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -885,8 +1047,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -898,8 +1060,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
@@ -911,8 +1073,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
@@ -924,8 +1086,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
@@ -937,8 +1099,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
@@ -950,8 +1112,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -963,8 +1125,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
@@ -976,8 +1138,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -989,8 +1151,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1002,8 +1164,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1015,8 +1177,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1028,8 +1190,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1041,8 +1203,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1054,8 +1216,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1067,8 +1229,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1080,8 +1242,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
@@ -1093,8 +1255,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1106,8 +1268,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="3" t="s">
         <v>45</v>
       </c>
@@ -1119,8 +1281,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
@@ -1132,8 +1294,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
@@ -1178,10 +1340,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1193,7 +1355,7 @@
       <c r="E31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="18" t="s">
         <v>83</v>
       </c>
       <c r="I31" t="s">
@@ -1201,8 +1363,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1212,14 +1374,14 @@
       <c r="E32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="19"/>
       <c r="I32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="3" t="s">
         <v>48</v>
       </c>
@@ -1229,29 +1391,29 @@
       <c r="E33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="19"/>
       <c r="I33"/>
     </row>
     <row r="34" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="19"/>
       <c r="I34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1260,10 +1422,10 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="14" t="s">
         <v>84</v>
       </c>
       <c r="I35" t="s">
@@ -1271,8 +1433,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="3" t="s">
         <v>19</v>
       </c>
@@ -1282,14 +1444,14 @@
       <c r="E36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="15"/>
       <c r="I36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
@@ -1299,31 +1461,31 @@
       <c r="E37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="15"/>
       <c r="I37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="15"/>
       <c r="I38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
@@ -1333,41 +1495,41 @@
       <c r="E39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="15"/>
       <c r="I39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="17" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="17"/>
       <c r="I40" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="14" t="s">
         <v>85</v>
       </c>
       <c r="I41" t="s">
@@ -1375,8 +1537,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
@@ -1386,14 +1548,14 @@
       <c r="E42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="15"/>
       <c r="I42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="3" t="s">
         <v>56</v>
       </c>
@@ -1403,7 +1565,7 @@
       <c r="E43" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="17"/>
       <c r="I43" t="s">
         <v>49</v>
       </c>
@@ -1411,17 +1573,181 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F44"/>
     </row>
+    <row r="46" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="32"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+      <c r="B53" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="28"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
+    <mergeCell ref="A3:A26"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B26"/>
+    <mergeCell ref="A49:A61"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="A31:A43"/>
     <mergeCell ref="F31:F34"/>
     <mergeCell ref="F35:F40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A3:A26"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
